--- a/replacing times.xlsx
+++ b/replacing times.xlsx
@@ -135,7 +135,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -155,14 +154,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -182,14 +178,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -209,14 +202,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -236,14 +226,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -263,18 +250,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -304,9 +287,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -336,9 +317,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -368,14 +347,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -395,14 +371,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -419,14 +392,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -446,14 +416,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -473,18 +440,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -514,9 +477,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -557,7 +518,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -728,11 +688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="357396016"/>
-        <c:axId val="357398816"/>
+        <c:axId val="189859072"/>
+        <c:axId val="189859632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357396016"/>
+        <c:axId val="189859072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +735,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357398816"/>
+        <c:crossAx val="189859632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,7 +743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357398816"/>
+        <c:axId val="189859632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357396016"/>
+        <c:crossAx val="189859072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,11 +1530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="360347408"/>
-        <c:axId val="492297408"/>
+        <c:axId val="189862432"/>
+        <c:axId val="189862992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="360347408"/>
+        <c:axId val="189862432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492297408"/>
+        <c:crossAx val="189862992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1625,9 +1585,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492297408"/>
+        <c:axId val="189862992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1677,7 +1638,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360347408"/>
+        <c:crossAx val="189862432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1695,10 +1656,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7915183044195101"/>
-          <c:y val="0.52403421349533574"/>
+          <c:x val="0.81505587152619963"/>
+          <c:y val="0.70826052993375832"/>
           <c:w val="0.18311902296876686"/>
-          <c:h val="0.39508726424550966"/>
+          <c:h val="0.18476971628546432"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1736,9 +1697,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF">
-        <a:alpha val="97000"/>
-      </a:sysClr>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:solidFill>
     <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2936,10 +2895,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156335</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78270</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4490,12 +4449,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/replacing times.xlsx
+++ b/replacing times.xlsx
@@ -688,11 +688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189859072"/>
-        <c:axId val="189859632"/>
+        <c:axId val="189184928"/>
+        <c:axId val="189185488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189859072"/>
+        <c:axId val="189184928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +735,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189859632"/>
+        <c:crossAx val="189185488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189859632"/>
+        <c:axId val="189185488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189859072"/>
+        <c:crossAx val="189184928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,11 +1530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189862432"/>
-        <c:axId val="189862992"/>
+        <c:axId val="190272064"/>
+        <c:axId val="190272624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189862432"/>
+        <c:axId val="190272064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189862992"/>
+        <c:crossAx val="190272624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189862992"/>
+        <c:axId val="190272624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -1601,6 +1601,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Replacement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> test cases (Normalized)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1638,7 +1699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189862432"/>
+        <c:crossAx val="190272064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2895,10 +2956,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4450,7 +4511,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
